--- a/config_12.15/shoping_config_cjj.xlsx
+++ b/config_12.15/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1831">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7802,6 +7802,102 @@
   </si>
   <si>
     <t>620000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,600000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29800000,900000,12,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10732,10 +10828,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q471" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R67" sqref="R67:R414"/>
+      <selection pane="bottomRight" activeCell="Q496" sqref="Q496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -41695,26 +41791,460 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H486" s="19"/>
-    </row>
-    <row r="487" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H487" s="19"/>
-    </row>
-    <row r="488" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H488" s="19"/>
-    </row>
-    <row r="489" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H489" s="19"/>
-    </row>
-    <row r="490" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H490" s="19"/>
-    </row>
-    <row r="491" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H491" s="19"/>
-    </row>
-    <row r="492" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H492" s="19"/>
+    <row r="486" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A486" s="19">
+        <v>485</v>
+      </c>
+      <c r="B486" s="19">
+        <v>10402</v>
+      </c>
+      <c r="F486" s="19">
+        <v>1</v>
+      </c>
+      <c r="G486" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I486" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J486" s="19" t="s">
+        <v>1809</v>
+      </c>
+      <c r="L486" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M486" s="19">
+        <v>0</v>
+      </c>
+      <c r="N486" s="19">
+        <v>0</v>
+      </c>
+      <c r="O486" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="P486" s="19">
+        <v>1800</v>
+      </c>
+      <c r="Q486" s="19" t="s">
+        <v>1810</v>
+      </c>
+      <c r="R486" s="40" t="s">
+        <v>1811</v>
+      </c>
+      <c r="W486" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="X486" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y486" s="35">
+        <v>1607990400</v>
+      </c>
+      <c r="Z486" s="35">
+        <v>1608566399</v>
+      </c>
+      <c r="AH486" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI486" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL486" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM486" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A487" s="19">
+        <v>486</v>
+      </c>
+      <c r="B487" s="19">
+        <v>10403</v>
+      </c>
+      <c r="F487" s="19">
+        <v>1</v>
+      </c>
+      <c r="G487" s="19" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I487" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J487" s="19" t="s">
+        <v>1813</v>
+      </c>
+      <c r="L487" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M487" s="19">
+        <v>0</v>
+      </c>
+      <c r="N487" s="19">
+        <v>0</v>
+      </c>
+      <c r="O487" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="P487" s="19">
+        <v>4800</v>
+      </c>
+      <c r="Q487" s="19" t="s">
+        <v>1810</v>
+      </c>
+      <c r="R487" s="40" t="s">
+        <v>1814</v>
+      </c>
+      <c r="W487" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="X487" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y487" s="35">
+        <v>1607990400</v>
+      </c>
+      <c r="Z487" s="35">
+        <v>1608566399</v>
+      </c>
+      <c r="AH487" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI487" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL487" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM487" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A488" s="19">
+        <v>487</v>
+      </c>
+      <c r="B488" s="19">
+        <v>10404</v>
+      </c>
+      <c r="F488" s="19">
+        <v>1</v>
+      </c>
+      <c r="G488" s="19" t="s">
+        <v>1815</v>
+      </c>
+      <c r="I488" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J488" s="19" t="s">
+        <v>1816</v>
+      </c>
+      <c r="L488" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M488" s="19">
+        <v>0</v>
+      </c>
+      <c r="N488" s="19">
+        <v>0</v>
+      </c>
+      <c r="O488" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="P488" s="19">
+        <v>9800</v>
+      </c>
+      <c r="Q488" s="19" t="s">
+        <v>1817</v>
+      </c>
+      <c r="R488" s="40" t="s">
+        <v>1818</v>
+      </c>
+      <c r="W488" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="X488" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y488" s="35">
+        <v>1607990400</v>
+      </c>
+      <c r="Z488" s="35">
+        <v>1608566399</v>
+      </c>
+      <c r="AH488" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI488" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL488" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM488" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A489" s="19">
+        <v>488</v>
+      </c>
+      <c r="B489" s="19">
+        <v>10405</v>
+      </c>
+      <c r="F489" s="19">
+        <v>1</v>
+      </c>
+      <c r="G489" s="19" t="s">
+        <v>1819</v>
+      </c>
+      <c r="I489" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J489" s="19" t="s">
+        <v>1820</v>
+      </c>
+      <c r="L489" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M489" s="19">
+        <v>0</v>
+      </c>
+      <c r="N489" s="19">
+        <v>0</v>
+      </c>
+      <c r="O489" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="P489" s="19">
+        <v>19800</v>
+      </c>
+      <c r="Q489" s="19" t="s">
+        <v>1817</v>
+      </c>
+      <c r="R489" s="40" t="s">
+        <v>1821</v>
+      </c>
+      <c r="W489" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="X489" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y489" s="35">
+        <v>1607990400</v>
+      </c>
+      <c r="Z489" s="35">
+        <v>1608566399</v>
+      </c>
+      <c r="AH489" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI489" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL489" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM489" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A490" s="19">
+        <v>489</v>
+      </c>
+      <c r="B490" s="19">
+        <v>10406</v>
+      </c>
+      <c r="F490" s="19">
+        <v>1</v>
+      </c>
+      <c r="G490" s="19" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I490" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J490" s="19" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L490" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M490" s="19">
+        <v>0</v>
+      </c>
+      <c r="N490" s="19">
+        <v>0</v>
+      </c>
+      <c r="O490" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="P490" s="19">
+        <v>29800</v>
+      </c>
+      <c r="Q490" s="19" t="s">
+        <v>1817</v>
+      </c>
+      <c r="R490" s="40" t="s">
+        <v>1823</v>
+      </c>
+      <c r="W490" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="X490" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y490" s="35">
+        <v>1607990400</v>
+      </c>
+      <c r="Z490" s="35">
+        <v>1608566399</v>
+      </c>
+      <c r="AH490" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI490" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL490" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM490" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A491" s="19">
+        <v>490</v>
+      </c>
+      <c r="B491" s="19">
+        <v>10407</v>
+      </c>
+      <c r="F491" s="19">
+        <v>1</v>
+      </c>
+      <c r="G491" s="19" t="s">
+        <v>1824</v>
+      </c>
+      <c r="I491" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J491" s="19" t="s">
+        <v>1825</v>
+      </c>
+      <c r="L491" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M491" s="19">
+        <v>0</v>
+      </c>
+      <c r="N491" s="19">
+        <v>0</v>
+      </c>
+      <c r="O491" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="P491" s="19">
+        <v>49800</v>
+      </c>
+      <c r="Q491" s="19" t="s">
+        <v>1826</v>
+      </c>
+      <c r="R491" s="40" t="s">
+        <v>1221</v>
+      </c>
+      <c r="W491" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="X491" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y491" s="35">
+        <v>1607990400</v>
+      </c>
+      <c r="Z491" s="35">
+        <v>1608566399</v>
+      </c>
+      <c r="AH491" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI491" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL491" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM491" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A492" s="19">
+        <v>491</v>
+      </c>
+      <c r="B492" s="19">
+        <v>10408</v>
+      </c>
+      <c r="F492" s="19">
+        <v>1</v>
+      </c>
+      <c r="G492" s="19" t="s">
+        <v>1827</v>
+      </c>
+      <c r="I492" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J492" s="19" t="s">
+        <v>1828</v>
+      </c>
+      <c r="L492" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M492" s="19">
+        <v>0</v>
+      </c>
+      <c r="N492" s="19">
+        <v>0</v>
+      </c>
+      <c r="O492" s="19" t="s">
+        <v>1829</v>
+      </c>
+      <c r="P492" s="19">
+        <v>99800</v>
+      </c>
+      <c r="Q492" s="19" t="s">
+        <v>1826</v>
+      </c>
+      <c r="R492" s="40" t="s">
+        <v>1222</v>
+      </c>
+      <c r="W492" s="19" t="s">
+        <v>1830</v>
+      </c>
+      <c r="X492" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y492" s="35">
+        <v>1607990400</v>
+      </c>
+      <c r="Z492" s="35">
+        <v>1608566399</v>
+      </c>
+      <c r="AH492" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI492" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL492" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM492" s="19">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_12.15/shoping_config_cjj.xlsx
+++ b/config_12.15/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="1803">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7637,87 +7637,155 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>30万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>75万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>150万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>490万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2490万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4990万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12490万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>335万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>660万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>990万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>jz_title|日常加赠抬头</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>30万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>75万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>150万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>250万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>250万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>490万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2490万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4990万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4990万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>12490万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>335万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>660万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>990万金币</t>
+    <t>加赠30万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠75万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠150万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠250万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠250万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠490万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠2490万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠5万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠5万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠50万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠5000万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠4990万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠12490万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠20万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠100万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠335万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠660万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠1020万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠990万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -42609,7 +42677,7 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42692,7 +42760,7 @@
         <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1765</v>
+        <v>1783</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>32</v>
@@ -42778,10 +42846,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1766</v>
+        <v>1784</v>
       </c>
       <c r="T2" s="34" t="s">
         <v>1014</v>
@@ -42849,10 +42917,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1767</v>
+        <v>1785</v>
       </c>
       <c r="T3" s="34" t="s">
         <v>1014</v>
@@ -42920,10 +42988,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1768</v>
+        <v>1786</v>
       </c>
       <c r="T4" s="34" t="s">
         <v>1015</v>
@@ -42991,10 +43059,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1770</v>
+        <v>1788</v>
       </c>
       <c r="T5" s="34" t="s">
         <v>1015</v>
@@ -43062,10 +43130,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1771</v>
+        <v>1789</v>
       </c>
       <c r="T6" s="34" t="s">
         <v>1015</v>
@@ -43133,10 +43201,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1772</v>
+        <v>1790</v>
       </c>
       <c r="T7" s="34" t="s">
         <v>1015</v>
@@ -43199,10 +43267,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1773</v>
+        <v>1792</v>
       </c>
       <c r="T8" s="34" t="s">
         <v>1016</v>
@@ -43265,10 +43333,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>1769</v>
+        <v>1787</v>
       </c>
       <c r="U9" s="11">
         <v>5000</v>
@@ -43331,10 +43399,10 @@
         <v>1</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>1775</v>
+        <v>1793</v>
       </c>
       <c r="U10" s="11">
         <v>1000</v>
@@ -43397,10 +43465,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1767</v>
+        <v>1785</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>1017</v>
@@ -43468,10 +43536,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1776</v>
+        <v>1794</v>
       </c>
       <c r="T12" s="34" t="s">
         <v>1015</v>
@@ -43539,10 +43607,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="T13" s="34" t="s">
         <v>1017</v>
@@ -43610,10 +43678,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1779</v>
+        <v>1796</v>
       </c>
       <c r="T14" s="34" t="s">
         <v>1018</v>
@@ -43679,10 +43747,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>1773</v>
+        <v>1792</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="11">
@@ -43751,10 +43819,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1780</v>
+        <v>1797</v>
       </c>
       <c r="T16" s="34" t="s">
         <v>1019</v>
@@ -43817,10 +43885,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1781</v>
+        <v>1798</v>
       </c>
       <c r="T17" s="34" t="s">
         <v>1020</v>
@@ -43883,10 +43951,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1782</v>
+        <v>1799</v>
       </c>
       <c r="T18" s="34" t="s">
         <v>1017</v>
@@ -43949,10 +44017,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1783</v>
+        <v>1800</v>
       </c>
       <c r="T19" s="34" t="s">
         <v>1021</v>
@@ -44015,10 +44083,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1784</v>
+        <v>1801</v>
       </c>
       <c r="T20" s="34" t="s">
         <v>1015</v>
@@ -44081,10 +44149,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1773</v>
+        <v>1792</v>
       </c>
       <c r="T21" s="36" t="s">
         <v>1014</v>
@@ -44147,10 +44215,10 @@
         <v>2</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>1770</v>
+        <v>1788</v>
       </c>
       <c r="T22" s="34"/>
       <c r="U22" s="11">
@@ -44211,10 +44279,10 @@
         <v>1</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="R23" s="34" t="s">
-        <v>1775</v>
+        <v>1793</v>
       </c>
       <c r="T23" s="34"/>
       <c r="U23" s="11">
@@ -44278,10 +44346,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="R24" s="34" t="s">
-        <v>1773</v>
+        <v>1791</v>
       </c>
       <c r="T24" s="34"/>
       <c r="U24" s="11">
@@ -44350,10 +44418,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1785</v>
+        <v>1802</v>
       </c>
       <c r="T25" s="34" t="s">
         <v>1022</v>
